--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAPE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Measure</t>
   </si>
@@ -159,15 +160,67 @@
   </si>
   <si>
     <t>Holt-Winters' multiplicative seasonal</t>
+  </si>
+  <si>
+    <t>HW Additive</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>HW Multiplic</t>
+  </si>
+  <si>
+    <t>Total Exports</t>
+  </si>
+  <si>
+    <t>ABS Pct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -256,7 +309,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -271,6 +324,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -589,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1099,4 +1157,707 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="16" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="14">
+        <v>4308161</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4614898</v>
+      </c>
+      <c r="D3" s="14">
+        <v>4953876</v>
+      </c>
+      <c r="E3" s="1">
+        <f>ABS(IFERROR((C3-B3)/B3,""))</f>
+        <v>7.1199056859759885E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <f>ABS(IFERROR((D3-B3)/B3,""))</f>
+        <v>0.14988181732298306</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <f>(1/G3)*SUM(E$3:E3)</f>
+        <v>7.1199056859759885E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f>(1/G3)*SUM(F$3:F3)</f>
+        <v>0.14988181732298306</v>
+      </c>
+      <c r="K3" s="15">
+        <v>2014</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4155378</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4621165</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4833179</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E14" si="0">ABS(IFERROR((C4-B4)/B4,""))</f>
+        <v>0.11209257015847897</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F14" si="1">ABS(IFERROR((D4-B4)/B4,""))</f>
+        <v>0.16311416193665174</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>(1/G4)*SUM(E$3:E4)</f>
+        <v>9.1645813509119434E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(1/G4)*SUM(F$3:F4)</f>
+        <v>0.1564979896298174</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="14">
+        <v>4308161</v>
+      </c>
+      <c r="M4" s="14">
+        <v>4614898</v>
+      </c>
+      <c r="N4" s="14">
+        <v>4953876</v>
+      </c>
+      <c r="O4" s="1">
+        <v>7.1199056859759885E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.14988181732298306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3924332</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4792680</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5099911</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22127281789614131</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29956155595398148</v>
+      </c>
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <f>(1/G5)*SUM(E$3:E5)</f>
+        <v>0.13485481497146004</v>
+      </c>
+      <c r="I5" s="1">
+        <f>(1/G5)*SUM(F$3:F5)</f>
+        <v>0.20418584507120544</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="14">
+        <v>4155378</v>
+      </c>
+      <c r="M5" s="14">
+        <v>4621165</v>
+      </c>
+      <c r="N5" s="14">
+        <v>4833179</v>
+      </c>
+      <c r="O5" s="1">
+        <v>9.1645813509119434E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.1564979896298174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3659121</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4117335</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4096370</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12522515653349534</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11949563843338332</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <f>(1/G6)*SUM(E$3:E6)</f>
+        <v>0.13244740036196886</v>
+      </c>
+      <c r="I6" s="1">
+        <f>(1/G6)*SUM(F$3:F6)</f>
+        <v>0.18301329341174991</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="14">
+        <v>3924332</v>
+      </c>
+      <c r="M6" s="14">
+        <v>4792680</v>
+      </c>
+      <c r="N6" s="14">
+        <v>5099911</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.13485481497146004</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.20418584507120544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3898758</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4180102</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4085963</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2162468150113443E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8016573483145142E-2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <f>(1/G7)*SUM(E$3:E7)</f>
+        <v>0.12039041391959777</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(1/G7)*SUM(F$3:F7)</f>
+        <v>0.15601394942602897</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="14">
+        <v>3659121</v>
+      </c>
+      <c r="M7" s="14">
+        <v>4117335</v>
+      </c>
+      <c r="N7" s="14">
+        <v>4096370</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.13244740036196886</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.18301329341174991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3313891</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3964973</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3709234</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19647055379914427</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1192987337241931</v>
+      </c>
+      <c r="G8" s="16">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <f>(1/G8)*SUM(E$3:E8)</f>
+        <v>0.1330704372328555</v>
+      </c>
+      <c r="I8" s="1">
+        <f>(1/G8)*SUM(F$3:F8)</f>
+        <v>0.14989474680905629</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="14">
+        <v>3898758</v>
+      </c>
+      <c r="M8" s="14">
+        <v>4180102</v>
+      </c>
+      <c r="N8" s="14">
+        <v>4085963</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.12039041391959777</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.15601394942602897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3595106</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3813994</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3416474</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0884991986328081E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9687547460353046E-2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <f>(1/G9)*SUM(E$3:E9)</f>
+        <v>0.12275823076906589</v>
+      </c>
+      <c r="I9" s="1">
+        <f>(1/G9)*SUM(F$3:F9)</f>
+        <v>0.13557943261638442</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="14">
+        <v>3313891</v>
+      </c>
+      <c r="M9" s="14">
+        <v>3964973</v>
+      </c>
+      <c r="N9" s="14">
+        <v>3709234</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.1330704372328555</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.14989474680905629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="14">
+        <v>3502426</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4229176</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4132425</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20749903067188286</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17987503518989409</v>
+      </c>
+      <c r="G10" s="16">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <f>(1/G10)*SUM(E$3:E10)</f>
+        <v>0.133350830756918</v>
+      </c>
+      <c r="I10" s="1">
+        <f>(1/G10)*SUM(F$3:F10)</f>
+        <v>0.14111638293807313</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="14">
+        <v>3595106</v>
+      </c>
+      <c r="M10" s="14">
+        <v>3813994</v>
+      </c>
+      <c r="N10" s="14">
+        <v>3416474</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.12275823076906589</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.13557943261638442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="14">
+        <v>5619059</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5618244</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6504304</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4504207910968724E-4</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15754328260301234</v>
+      </c>
+      <c r="G11" s="16">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <f>(1/G11)*SUM(E$3:E11)</f>
+        <v>0.11855018757049485</v>
+      </c>
+      <c r="I11" s="1">
+        <f>(1/G11)*SUM(F$3:F11)</f>
+        <v>0.14294159401195525</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="14">
+        <v>3502426</v>
+      </c>
+      <c r="M11" s="14">
+        <v>4229176</v>
+      </c>
+      <c r="N11" s="14">
+        <v>4132425</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.133350830756918</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.14111638293807313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="14">
+        <v>5274287</v>
+      </c>
+      <c r="C12" s="14">
+        <v>5254949</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5895725</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6664671452274022E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11782407745350225</v>
+      </c>
+      <c r="G12" s="16">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <f>(1/G12)*SUM(E$3:E12)</f>
+        <v>0.1070618155279681</v>
+      </c>
+      <c r="I12" s="1">
+        <f>(1/G12)*SUM(F$3:F12)</f>
+        <v>0.14042984235610997</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="14">
+        <v>5619059</v>
+      </c>
+      <c r="M12" s="14">
+        <v>5618244</v>
+      </c>
+      <c r="N12" s="14">
+        <v>6504304</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.11855018757049485</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.14294159401195525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="14">
+        <v>4841693</v>
+      </c>
+      <c r="C13" s="14">
+        <v>5473953</v>
+      </c>
+      <c r="D13" s="14">
+        <v>6226547</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13058655309206924</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28602680921735435</v>
+      </c>
+      <c r="G13" s="16">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <f>(1/G13)*SUM(E$3:E13)</f>
+        <v>0.10920042803379548</v>
+      </c>
+      <c r="I13" s="1">
+        <f>(1/G13)*SUM(F$3:F13)</f>
+        <v>0.15366593025258674</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="14">
+        <v>5274287</v>
+      </c>
+      <c r="M13" s="14">
+        <v>5254949</v>
+      </c>
+      <c r="N13" s="14">
+        <v>5895725</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.1070618155279681</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.14042984235610997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="14">
+        <v>4664854</v>
+      </c>
+      <c r="C14" s="14">
+        <v>5117202</v>
+      </c>
+      <c r="D14" s="14">
+        <v>5572052</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6969379963445804E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19447511111816146</v>
+      </c>
+      <c r="G14" s="16">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <f>(1/G14)*SUM(E$3:E14)</f>
+        <v>0.10818117402793301</v>
+      </c>
+      <c r="I14" s="1">
+        <f>(1/G14)*SUM(F$3:F14)</f>
+        <v>0.15706669532471795</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="14">
+        <v>4841693</v>
+      </c>
+      <c r="M14" s="14">
+        <v>5473953</v>
+      </c>
+      <c r="N14" s="14">
+        <v>6226547</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.10920042803379548</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.15366593025258674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="14">
+        <v>4664854</v>
+      </c>
+      <c r="M15" s="14">
+        <v>5117202</v>
+      </c>
+      <c r="N15" s="14">
+        <v>5572052</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.10818117402793301</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.15706669532471795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>